--- a/working_with_libraries/accessing_data/Yao_2018.xlsx
+++ b/working_with_libraries/accessing_data/Yao_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="outside_peak" sheetId="1" state="visible" r:id="rId2"/>
@@ -152,7 +152,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -177,12 +177,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -230,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,10 +238,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -268,34 +258,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1012" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -310,11 +294,6 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -332,11 +311,6 @@
       <c r="E2" s="3" t="n">
         <v>0.208390691875708</v>
       </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -354,11 +328,6 @@
       <c r="E3" s="3" t="n">
         <v>0.208390691875708</v>
       </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -376,11 +345,6 @@
       <c r="E4" s="3" t="n">
         <v>0.208390691875708</v>
       </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -398,11 +362,6 @@
       <c r="E5" s="3" t="n">
         <v>0.208390691875708</v>
       </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
-      <c r="K5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -420,11 +379,6 @@
       <c r="E6" s="3" t="n">
         <v>0.208390691875708</v>
       </c>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
-      <c r="K6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -442,11 +396,6 @@
       <c r="E7" s="3" t="n">
         <v>0.208390691875708</v>
       </c>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -464,11 +413,6 @@
       <c r="E8" s="3" t="n">
         <v>0.208390691875708</v>
       </c>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -486,11 +430,6 @@
       <c r="E9" s="3" t="n">
         <v>0.208390691875708</v>
       </c>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -508,11 +447,6 @@
       <c r="E10" s="3" t="n">
         <v>0.208390691875708</v>
       </c>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -877,12 +811,10 @@
         <v>0.223966428594098</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -891,24 +823,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="40.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1085,7 +1016,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
